--- a/data/case1/13/Plm1_14.xlsx
+++ b/data/case1/13/Plm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.00044673546609885761</v>
+        <v>-0.020878416066977934</v>
       </c>
       <c r="B1" s="0">
-        <v>0.00030782263765161133</v>
+        <v>0.020759560837007029</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.045803750629385576</v>
+        <v>0.025350785661276021</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.046431648403405745</v>
+        <v>-0.02584891362287145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14936102276445951</v>
+        <v>0.14420539239945995</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.1500373735607603</v>
+        <v>-0.14477250556808485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.13395818047326102</v>
+        <v>-0.13921899882362609</v>
       </c>
       <c r="B4" s="0">
-        <v>0.13339287986517689</v>
+        <v>0.13868824679678227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12739288002782789</v>
+        <v>-0.13268824719741623</v>
       </c>
       <c r="B5" s="0">
-        <v>0.12627998079218727</v>
+        <v>0.13164444565043532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.070267022472433993</v>
+        <v>-0.072189297427079691</v>
       </c>
       <c r="B6" s="0">
-        <v>0.070203011091929834</v>
+        <v>0.072119563724296842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.050203011293453059</v>
+        <v>-0.052119564208579661</v>
       </c>
       <c r="B7" s="0">
-        <v>0.050083753061590741</v>
+        <v>0.051986631932479099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.030083753264501745</v>
+        <v>-0.031986632419918948</v>
       </c>
       <c r="B8" s="0">
-        <v>0.030023714002013868</v>
+        <v>0.031917473744955238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.024023714172169086</v>
+        <v>-0.025917474163428267</v>
       </c>
       <c r="B9" s="0">
-        <v>0.023984491027758459</v>
+        <v>0.025871811481354534</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.017984491198951957</v>
+        <v>-0.019871811902142156</v>
       </c>
       <c r="B10" s="0">
-        <v>0.017981978755720718</v>
+        <v>0.019871277413592736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.013481978923302051</v>
+        <v>-0.051464427334636298</v>
       </c>
       <c r="B11" s="0">
-        <v>0.013477268334103343</v>
+        <v>0.051387439587543327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0074772685054131927</v>
+        <v>-0.045387440010140612</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0074611394548229626</v>
+        <v>0.045148356811655965</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039146776879031897</v>
+        <v>-0.039148357240953224</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039082559976683307</v>
+        <v>0.039083272816099246</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.02708256016389754</v>
+        <v>-0.027083273278099007</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027051332255835447</v>
+        <v>0.027051817796007072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021051332429093073</v>
+        <v>-0.021051818228520425</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026734438174266</v>
+        <v>0.021027053565493503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026734612051396</v>
+        <v>-0.015027053999269402</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004480504270834</v>
+        <v>0.015004380588413913</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090044806789357779</v>
+        <v>-0.0090043810238844557</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999998178305063</v>
+        <v>0.0089999995487390905</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036111573439978173</v>
+        <v>-0.036110346919908665</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096865541786372</v>
+        <v>0.03609664634712928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096865712605833</v>
+        <v>-0.027096646763957288</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027014042296098939</v>
+        <v>0.027013786157357611</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018014042468452729</v>
+        <v>-0.018013786577666835</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004306257125791</v>
+        <v>0.018004306053232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043064297331554</v>
+        <v>-0.0090043064740124024</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999998271919068</v>
+        <v>0.0089999995788776488</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093929374530951293</v>
+        <v>-0.10935647919237113</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093622024978452956</v>
+        <v>0.10892790324463064</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084622025149950986</v>
+        <v>-0.084623246490974857</v>
       </c>
       <c r="B23" s="0">
-        <v>0.08412443002353065</v>
+        <v>0.084124584206148434</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124430278034808</v>
+        <v>-0.042124584802618159</v>
       </c>
       <c r="B24" s="0">
-        <v>0.04199999974407298</v>
+        <v>0.04199999940049004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.050012958486746584</v>
+        <v>-0.053455148634526495</v>
       </c>
       <c r="B25" s="0">
-        <v>0.049949026472315694</v>
+        <v>0.053413877931603793</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.044120481903831887</v>
+        <v>-0.047413878343451898</v>
       </c>
       <c r="B26" s="0">
-        <v>0.044083561662638715</v>
+        <v>0.047366809847783742</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.038083561830423385</v>
+        <v>-0.026681355154075881</v>
       </c>
       <c r="B27" s="0">
-        <v>0.037978889892883672</v>
+        <v>0.026554361228508405</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.031978890062325682</v>
+        <v>-0.02055436164380442</v>
       </c>
       <c r="B28" s="0">
-        <v>0.031923061554740784</v>
+        <v>0.02047969270159733</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.00077020133258898227</v>
+        <v>-0.0084796931491322169</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.00077429636808901137</v>
+        <v>0.0084580457861243019</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021107958175827779</v>
+        <v>0.011541953724970355</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021079716120809167</v>
+        <v>-0.011628689229765676</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.00607971631395543</v>
+        <v>0.026628688767504016</v>
       </c>
       <c r="B31" s="0">
-        <v>0.006077961952099642</v>
+        <v>-0.026677827822735978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.014922037840113589</v>
+        <v>-0.0060008285705634989</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.01493431932596323</v>
+        <v>0.0059999995845165799</v>
       </c>
     </row>
   </sheetData>
